--- a/data/trans_camb/P16A12-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Clase-trans_camb.xlsx
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 2,18</t>
+          <t>-3,26; 2,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 5,73</t>
+          <t>-1,01; 5,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,24</t>
+          <t>-0,08; 5,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,48</t>
+          <t>-0,32; 4,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,3</t>
+          <t>-0,43; 3,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,77</t>
+          <t>-1,26; 2,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,35</t>
+          <t>0,13; 4,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,72</t>
+          <t>0,09; 3,79</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,92; 62,4</t>
+          <t>-56,6; 66,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 159,37</t>
+          <t>-17,62; 172,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 173,83</t>
+          <t>0,12; 170,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 629,23</t>
+          <t>-30,8; 764,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 633,08</t>
+          <t>-25,69; 717,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 601,17</t>
+          <t>-24,23; 504,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 102,45</t>
+          <t>-30,81; 101,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 178,05</t>
+          <t>1,28; 164,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 146,93</t>
+          <t>2,0; 150,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,95</t>
+          <t>-2,36; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,53</t>
+          <t>-1,35; 4,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,82</t>
+          <t>1,58; 7,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,69</t>
+          <t>-1,07; 3,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,61</t>
+          <t>-0,83; 3,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,74</t>
+          <t>-1,02; 2,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,11</t>
+          <t>-0,74; 3,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,41</t>
+          <t>-0,31; 3,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,93</t>
+          <t>1,33; 5,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 129,18</t>
+          <t>-38,53; 115,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 146,09</t>
+          <t>-25,48; 162,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,29; 255,79</t>
+          <t>22,12; 258,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,37; 817,82</t>
+          <t>-54,34; 710,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,14; 642,73</t>
+          <t>-49,45; 783,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 473,52</t>
+          <t>-44,06; 452,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 149,49</t>
+          <t>-21,08; 144,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 161,03</t>
+          <t>-9,1; 166,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 232,93</t>
+          <t>28,72; 232,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,3</t>
+          <t>2,11; 8,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,01</t>
+          <t>1,92; 8,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 6,65</t>
+          <t>-3,46; 6,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,48</t>
+          <t>-7,13; 3,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 4,55</t>
+          <t>-6,67; 5,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 7,26</t>
+          <t>-3,03; 7,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,21</t>
+          <t>0,81; 6,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,43</t>
+          <t>0,54; 6,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,57</t>
+          <t>-3,32; 5,81</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,53; 215,11</t>
+          <t>29,16; 206,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,8; 188,92</t>
+          <t>27,77; 204,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 139,28</t>
+          <t>-56,11; 140,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,55; 79,54</t>
+          <t>-64,47; 79,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,97; 109,67</t>
+          <t>-66,36; 117,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 163,18</t>
+          <t>-29,32; 188,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,87; 134,95</t>
+          <t>11,05; 142,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,54; 137,9</t>
+          <t>6,04; 133,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 105,96</t>
+          <t>-49,16; 113,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,74</t>
+          <t>-0,73; 3,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,33</t>
+          <t>-0,43; 3,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,33</t>
+          <t>0,66; 5,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,06</t>
+          <t>-1,35; 3,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,48</t>
+          <t>-2,4; 1,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,97</t>
+          <t>-2,97; 1,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,79</t>
+          <t>-0,31; 2,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,4</t>
+          <t>-0,79; 2,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,96</t>
+          <t>-1,27; 3,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 58,55</t>
+          <t>-9,08; 61,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 67,34</t>
+          <t>-5,89; 61,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,02; 83,23</t>
+          <t>7,35; 79,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 97,83</t>
+          <t>-24,33; 108,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,5; 46,33</t>
+          <t>-46,96; 53,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 56,59</t>
+          <t>-54,46; 52,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 48,91</t>
+          <t>-4,71; 53,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 43,52</t>
+          <t>-11,8; 41,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 53,63</t>
+          <t>-18,38; 52,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,56</t>
+          <t>-2,99; 3,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 7,78</t>
+          <t>0,98; 7,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 5,72</t>
+          <t>-1,15; 5,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,36</t>
+          <t>1,05; 6,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,91</t>
+          <t>1,39; 7,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,9</t>
+          <t>1,68; 7,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,45</t>
+          <t>0,17; 4,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,41</t>
+          <t>1,93; 6,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,96</t>
+          <t>1,38; 6,03</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 80,29</t>
+          <t>-35,97; 85,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4,31; 178,26</t>
+          <t>5,83; 171,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 128,68</t>
+          <t>-15,46; 131,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,26; 159,58</t>
+          <t>15,18; 174,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,93; 170,73</t>
+          <t>19,1; 193,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>28,69; 218,53</t>
+          <t>22,95; 201,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,47; 99,98</t>
+          <t>0,71; 97,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>28,79; 139,51</t>
+          <t>26,37; 141,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,4; 128,0</t>
+          <t>21,24; 136,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,0</t>
+          <t>0,4; 4,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,03; 3,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,21</t>
+          <t>-0,45; 1,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,79</t>
+          <t>1,55; 6,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,12</t>
+          <t>0,96; 6,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,65</t>
+          <t>-1,12; 3,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,8</t>
+          <t>1,25; 5,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,15</t>
+          <t>0,63; 5,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,52</t>
+          <t>-1,38; 2,71</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>13,47; 75,29</t>
+          <t>14,28; 76,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,35; 70,66</t>
+          <t>8,48; 71,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 42,11</t>
+          <t>-10,49; 42,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>13,06; 81,82</t>
+          <t>14,85; 81,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,83; 73,08</t>
+          <t>6,47; 70,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 35,57</t>
+          <t>-15,2; 39,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,12</t>
+          <t>0,53; 2,95</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,0</t>
+          <t>1,59; 4,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,02</t>
+          <t>0,69; 4,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,61</t>
+          <t>1,15; 3,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,99</t>
+          <t>0,52; 3,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,15</t>
+          <t>-0,82; 1,94</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,99</t>
+          <t>1,16; 2,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,18</t>
+          <t>1,33; 3,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,65</t>
+          <t>0,72; 2,68</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>9,56; 61,2</t>
+          <t>7,71; 58,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>25,01; 79,18</t>
+          <t>24,78; 78,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>12,88; 79,3</t>
+          <t>12,43; 79,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>17,19; 64,81</t>
+          <t>17,08; 64,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>8,52; 55,74</t>
+          <t>7,62; 54,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 38,57</t>
+          <t>-12,16; 34,61</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,47; 56,95</t>
+          <t>18,86; 55,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>23,93; 58,44</t>
+          <t>21,38; 58,98</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>10,09; 48,64</t>
+          <t>11,7; 48,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A12-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
